--- a/src/main/resources/testdata/Check_DeleteThisSequenceButton_DetailTab_SeqSec.xlsx
+++ b/src/main/resources/testdata/Check_DeleteThisSequenceButton_DetailTab_SeqSec.xlsx
@@ -45,9 +45,6 @@
     <t>user</t>
   </si>
   <si>
-    <t>Pillai, Nisha</t>
-  </si>
-  <si>
     <t>Check Delete Button enabled/disabled in tabbed view GF</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>SYLK001585-CDNA//</t>
+  </si>
+  <si>
+    <t>Elkomy, Mohamed</t>
   </si>
 </sst>
 </file>
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,25 +494,25 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
       <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
-        <v>20</v>
-      </c>
       <c r="N1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -520,46 +520,46 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
